--- a/Мошенское/Перечень ВЛ.xlsx
+++ b/Мошенское/Перечень ВЛ.xlsx
@@ -752,7 +752,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="167">
+  <cellXfs count="135">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -826,13 +826,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -853,46 +847,31 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -907,13 +886,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -928,13 +901,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -962,6 +929,93 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -970,7 +1024,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -998,81 +1052,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1090,139 +1069,64 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1617,9 +1521,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F652"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A70" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A73" sqref="A73"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1677,7 +1581,7 @@
       <c r="A3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="11">
+      <c r="B3" s="132">
         <v>10</v>
       </c>
       <c r="C3" s="11" t="s">
@@ -1697,7 +1601,7 @@
       <c r="A4" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="11">
+      <c r="B4" s="132">
         <v>10</v>
       </c>
       <c r="C4" s="18" t="s">
@@ -1717,7 +1621,7 @@
       <c r="A5" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="11">
+      <c r="B5" s="132">
         <v>10</v>
       </c>
       <c r="C5" s="19" t="s">
@@ -1737,7 +1641,7 @@
       <c r="A6" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="11">
+      <c r="B6" s="132">
         <v>10</v>
       </c>
       <c r="C6" s="20" t="s">
@@ -1757,7 +1661,7 @@
       <c r="A7" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="B7" s="11">
+      <c r="B7" s="132">
         <v>10</v>
       </c>
       <c r="C7" s="20" t="s">
@@ -1777,7 +1681,7 @@
       <c r="A8" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B8" s="20">
+      <c r="B8" s="132">
         <v>10</v>
       </c>
       <c r="C8" s="22" t="s">
@@ -1797,7 +1701,7 @@
       <c r="A9" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B9" s="20">
+      <c r="B9" s="132">
         <v>10</v>
       </c>
       <c r="C9" s="23" t="s">
@@ -1806,10 +1710,10 @@
       <c r="D9" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="E9" s="32" t="s">
+      <c r="E9" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="F9" s="32" t="s">
+      <c r="F9" s="30" t="s">
         <v>41</v>
       </c>
     </row>
@@ -1817,59 +1721,59 @@
       <c r="A10" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B10" s="24">
-        <v>10</v>
-      </c>
-      <c r="C10" s="32" t="s">
+      <c r="B10" s="132">
+        <v>10</v>
+      </c>
+      <c r="C10" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="D10" s="32" t="s">
+      <c r="D10" s="30" t="s">
         <v>41</v>
       </c>
-      <c r="E10" s="26" t="s">
+      <c r="E10" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="F10" s="26" t="s">
+      <c r="F10" s="25" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" s="25" t="s">
+      <c r="A11" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="B11" s="25">
-        <v>10</v>
-      </c>
-      <c r="C11" s="31" t="s">
+      <c r="B11" s="132">
+        <v>10</v>
+      </c>
+      <c r="C11" s="29" t="s">
         <v>40</v>
       </c>
-      <c r="D11" s="31" t="s">
+      <c r="D11" s="29" t="s">
         <v>41</v>
       </c>
-      <c r="E11" s="35" t="s">
+      <c r="E11" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="F11" s="35" t="s">
+      <c r="F11" s="32" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" s="27" t="s">
+      <c r="A12" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="B12" s="27">
-        <v>10</v>
-      </c>
-      <c r="C12" s="33" t="s">
+      <c r="B12" s="132">
+        <v>10</v>
+      </c>
+      <c r="C12" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="D12" s="33" t="s">
+      <c r="D12" s="31" t="s">
         <v>43</v>
       </c>
-      <c r="E12" s="29" t="s">
+      <c r="E12" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="F12" s="29" t="s">
+      <c r="F12" s="27" t="s">
         <v>36</v>
       </c>
     </row>
@@ -1877,19 +1781,19 @@
       <c r="A13" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B13" s="28">
-        <v>10</v>
-      </c>
-      <c r="C13" s="29" t="s">
+      <c r="B13" s="132">
+        <v>10</v>
+      </c>
+      <c r="C13" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="D13" s="29" t="s">
+      <c r="D13" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="E13" s="30" t="s">
+      <c r="E13" s="28" t="s">
         <v>38</v>
       </c>
-      <c r="F13" s="30" t="s">
+      <c r="F13" s="28" t="s">
         <v>39</v>
       </c>
     </row>
@@ -1897,19 +1801,19 @@
       <c r="A14" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="B14" s="34">
-        <v>10</v>
-      </c>
-      <c r="C14" s="37" t="s">
+      <c r="B14" s="132">
+        <v>10</v>
+      </c>
+      <c r="C14" s="33" t="s">
         <v>45</v>
       </c>
-      <c r="D14" s="37" t="s">
+      <c r="D14" s="33" t="s">
         <v>46</v>
       </c>
-      <c r="E14" s="35" t="s">
+      <c r="E14" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="F14" s="35" t="s">
+      <c r="F14" s="32" t="s">
         <v>39</v>
       </c>
     </row>
@@ -1917,59 +1821,59 @@
       <c r="A15" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="B15" s="36">
-        <v>10</v>
-      </c>
-      <c r="C15" s="39" t="s">
+      <c r="B15" s="132">
+        <v>10</v>
+      </c>
+      <c r="C15" s="35" t="s">
         <v>45</v>
       </c>
-      <c r="D15" s="39" t="s">
+      <c r="D15" s="35" t="s">
         <v>46</v>
       </c>
-      <c r="E15" s="39" t="s">
+      <c r="E15" s="35" t="s">
         <v>48</v>
       </c>
-      <c r="F15" s="39" t="s">
+      <c r="F15" s="35" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16" s="38" t="s">
+      <c r="A16" s="34" t="s">
         <v>50</v>
       </c>
-      <c r="B16" s="38">
-        <v>10</v>
-      </c>
-      <c r="C16" s="40" t="s">
+      <c r="B16" s="132">
+        <v>10</v>
+      </c>
+      <c r="C16" s="36" t="s">
         <v>48</v>
       </c>
-      <c r="D16" s="40" t="s">
+      <c r="D16" s="36" t="s">
         <v>49</v>
       </c>
-      <c r="E16" s="42" t="s">
+      <c r="E16" s="38" t="s">
         <v>51</v>
       </c>
-      <c r="F16" s="42" t="s">
+      <c r="F16" s="38" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A17" s="41" t="s">
+      <c r="A17" s="37" t="s">
         <v>53</v>
       </c>
-      <c r="B17" s="43">
-        <v>10</v>
-      </c>
-      <c r="C17" s="44" t="s">
+      <c r="B17" s="132">
+        <v>10</v>
+      </c>
+      <c r="C17" s="39" t="s">
         <v>48</v>
       </c>
-      <c r="D17" s="44" t="s">
+      <c r="D17" s="39" t="s">
         <v>49</v>
       </c>
-      <c r="E17" s="44" t="s">
+      <c r="E17" s="39" t="s">
         <v>54</v>
       </c>
-      <c r="F17" s="44" t="s">
+      <c r="F17" s="39" t="s">
         <v>55</v>
       </c>
     </row>
@@ -1977,19 +1881,19 @@
       <c r="A18" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="B18" s="43">
-        <v>10</v>
-      </c>
-      <c r="C18" s="46" t="s">
+      <c r="B18" s="132">
+        <v>10</v>
+      </c>
+      <c r="C18" s="40" t="s">
         <v>57</v>
       </c>
-      <c r="D18" s="46" t="s">
+      <c r="D18" s="40" t="s">
         <v>58</v>
       </c>
-      <c r="E18" s="44" t="s">
+      <c r="E18" s="39" t="s">
         <v>54</v>
       </c>
-      <c r="F18" s="44" t="s">
+      <c r="F18" s="39" t="s">
         <v>55</v>
       </c>
     </row>
@@ -1997,19 +1901,19 @@
       <c r="A19" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="B19" s="45">
-        <v>10</v>
-      </c>
-      <c r="C19" s="46" t="s">
+      <c r="B19" s="132">
+        <v>10</v>
+      </c>
+      <c r="C19" s="40" t="s">
         <v>57</v>
       </c>
-      <c r="D19" s="46" t="s">
+      <c r="D19" s="40" t="s">
         <v>58</v>
       </c>
-      <c r="E19" s="48" t="s">
+      <c r="E19" s="41" t="s">
         <v>60</v>
       </c>
-      <c r="F19" s="48" t="s">
+      <c r="F19" s="41" t="s">
         <v>61</v>
       </c>
     </row>
@@ -2017,39 +1921,39 @@
       <c r="A20" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="B20" s="47">
-        <v>10</v>
-      </c>
-      <c r="C20" s="49" t="s">
+      <c r="B20" s="132">
+        <v>10</v>
+      </c>
+      <c r="C20" s="42" t="s">
         <v>57</v>
       </c>
-      <c r="D20" s="49" t="s">
+      <c r="D20" s="42" t="s">
         <v>58</v>
       </c>
-      <c r="E20" s="51" t="s">
+      <c r="E20" s="44" t="s">
         <v>63</v>
       </c>
-      <c r="F20" s="51" t="s">
+      <c r="F20" s="44" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A21" s="50" t="s">
+      <c r="A21" s="43" t="s">
         <v>65</v>
       </c>
-      <c r="B21" s="50">
-        <v>10</v>
-      </c>
-      <c r="C21" s="53" t="s">
+      <c r="B21" s="132">
+        <v>10</v>
+      </c>
+      <c r="C21" s="45" t="s">
         <v>63</v>
       </c>
-      <c r="D21" s="53" t="s">
+      <c r="D21" s="45" t="s">
         <v>64</v>
       </c>
-      <c r="E21" s="76" t="s">
+      <c r="E21" s="64" t="s">
         <v>94</v>
       </c>
-      <c r="F21" s="76" t="s">
+      <c r="F21" s="64" t="s">
         <v>95</v>
       </c>
     </row>
@@ -2057,59 +1961,59 @@
       <c r="A22" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B22" s="52">
-        <v>10</v>
-      </c>
-      <c r="C22" s="56" t="s">
+      <c r="B22" s="132">
+        <v>10</v>
+      </c>
+      <c r="C22" s="47" t="s">
         <v>66</v>
       </c>
-      <c r="D22" s="56" t="s">
+      <c r="D22" s="47" t="s">
         <v>67</v>
       </c>
-      <c r="E22" s="77" t="s">
+      <c r="E22" s="65" t="s">
         <v>94</v>
       </c>
-      <c r="F22" s="77" t="s">
+      <c r="F22" s="65" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A23" s="56" t="s">
-        <v>10</v>
-      </c>
-      <c r="B23" s="54">
-        <v>10</v>
-      </c>
-      <c r="C23" s="55" t="s">
+      <c r="A23" s="47" t="s">
+        <v>10</v>
+      </c>
+      <c r="B23" s="132">
+        <v>10</v>
+      </c>
+      <c r="C23" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="D23" s="55" t="s">
+      <c r="D23" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="E23" s="58" t="s">
+      <c r="E23" s="49" t="s">
         <v>66</v>
       </c>
-      <c r="F23" s="58" t="s">
+      <c r="F23" s="49" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A24" s="57" t="s">
+      <c r="A24" s="48" t="s">
         <v>68</v>
       </c>
-      <c r="B24" s="57">
-        <v>10</v>
-      </c>
-      <c r="C24" s="58" t="s">
+      <c r="B24" s="132">
+        <v>10</v>
+      </c>
+      <c r="C24" s="49" t="s">
         <v>57</v>
       </c>
-      <c r="D24" s="58" t="s">
+      <c r="D24" s="49" t="s">
         <v>58</v>
       </c>
-      <c r="E24" s="60" t="s">
+      <c r="E24" s="50" t="s">
         <v>69</v>
       </c>
-      <c r="F24" s="60" t="s">
+      <c r="F24" s="50" t="s">
         <v>70</v>
       </c>
     </row>
@@ -2117,19 +2021,19 @@
       <c r="A25" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="B25" s="59">
-        <v>10</v>
-      </c>
-      <c r="C25" s="62" t="s">
+      <c r="B25" s="132">
+        <v>10</v>
+      </c>
+      <c r="C25" s="51" t="s">
         <v>72</v>
       </c>
-      <c r="D25" s="62" t="s">
+      <c r="D25" s="51" t="s">
         <v>73</v>
       </c>
-      <c r="E25" s="60" t="s">
+      <c r="E25" s="50" t="s">
         <v>69</v>
       </c>
-      <c r="F25" s="60" t="s">
+      <c r="F25" s="50" t="s">
         <v>70</v>
       </c>
     </row>
@@ -2137,179 +2041,179 @@
       <c r="A26" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="B26" s="61">
-        <v>10</v>
-      </c>
-      <c r="C26" s="62" t="s">
+      <c r="B26" s="132">
+        <v>10</v>
+      </c>
+      <c r="C26" s="51" t="s">
         <v>72</v>
       </c>
-      <c r="D26" s="62" t="s">
+      <c r="D26" s="51" t="s">
         <v>73</v>
       </c>
-      <c r="E26" s="64" t="s">
+      <c r="E26" s="53" t="s">
         <v>75</v>
       </c>
-      <c r="F26" s="64" t="s">
+      <c r="F26" s="53" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A27" s="63" t="s">
+      <c r="A27" s="52" t="s">
         <v>77</v>
       </c>
-      <c r="B27" s="63">
-        <v>10</v>
-      </c>
-      <c r="C27" s="66" t="s">
+      <c r="B27" s="132">
+        <v>10</v>
+      </c>
+      <c r="C27" s="55" t="s">
         <v>78</v>
       </c>
-      <c r="D27" s="66" t="s">
+      <c r="D27" s="55" t="s">
         <v>79</v>
       </c>
-      <c r="E27" s="64" t="s">
+      <c r="E27" s="53" t="s">
         <v>75</v>
       </c>
-      <c r="F27" s="64" t="s">
+      <c r="F27" s="53" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A28" s="65" t="s">
+      <c r="A28" s="54" t="s">
         <v>80</v>
       </c>
-      <c r="B28" s="65">
-        <v>10</v>
-      </c>
-      <c r="C28" s="68" t="s">
+      <c r="B28" s="132">
+        <v>10</v>
+      </c>
+      <c r="C28" s="57" t="s">
         <v>81</v>
       </c>
-      <c r="D28" s="68" t="s">
+      <c r="D28" s="57" t="s">
         <v>82</v>
       </c>
-      <c r="E28" s="68" t="s">
+      <c r="E28" s="57" t="s">
         <v>75</v>
       </c>
-      <c r="F28" s="68" t="s">
+      <c r="F28" s="57" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A29" s="67" t="s">
+      <c r="A29" s="56" t="s">
         <v>83</v>
       </c>
-      <c r="B29" s="67">
-        <v>10</v>
-      </c>
-      <c r="C29" s="68" t="s">
+      <c r="B29" s="132">
+        <v>10</v>
+      </c>
+      <c r="C29" s="57" t="s">
         <v>81</v>
       </c>
-      <c r="D29" s="68" t="s">
+      <c r="D29" s="57" t="s">
         <v>82</v>
       </c>
-      <c r="E29" s="69" t="s">
+      <c r="E29" s="58" t="s">
         <v>85</v>
       </c>
-      <c r="F29" s="69" t="s">
+      <c r="F29" s="58" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A30" s="67" t="s">
+      <c r="A30" s="56" t="s">
         <v>84</v>
       </c>
-      <c r="B30" s="67">
-        <v>10</v>
-      </c>
-      <c r="C30" s="68" t="s">
+      <c r="B30" s="132">
+        <v>10</v>
+      </c>
+      <c r="C30" s="57" t="s">
         <v>81</v>
       </c>
-      <c r="D30" s="68" t="s">
+      <c r="D30" s="57" t="s">
         <v>82</v>
       </c>
-      <c r="E30" s="73" t="s">
+      <c r="E30" s="61" t="s">
         <v>87</v>
       </c>
-      <c r="F30" s="73" t="s">
+      <c r="F30" s="61" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A31" s="72" t="s">
-        <v>10</v>
-      </c>
-      <c r="B31" s="70">
-        <v>10</v>
-      </c>
-      <c r="C31" s="71" t="s">
+      <c r="A31" s="60" t="s">
+        <v>10</v>
+      </c>
+      <c r="B31" s="132">
+        <v>10</v>
+      </c>
+      <c r="C31" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="D31" s="71" t="s">
+      <c r="D31" s="59" t="s">
         <v>9</v>
       </c>
-      <c r="E31" s="75" t="s">
+      <c r="E31" s="63" t="s">
         <v>89</v>
       </c>
-      <c r="F31" s="75" t="s">
+      <c r="F31" s="63" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A32" s="74" t="s">
+      <c r="A32" s="62" t="s">
         <v>91</v>
       </c>
-      <c r="B32" s="74">
-        <v>10</v>
-      </c>
-      <c r="C32" s="75" t="s">
+      <c r="B32" s="132">
+        <v>10</v>
+      </c>
+      <c r="C32" s="63" t="s">
         <v>89</v>
       </c>
-      <c r="D32" s="75" t="s">
+      <c r="D32" s="63" t="s">
         <v>90</v>
       </c>
-      <c r="E32" s="79" t="s">
+      <c r="E32" s="66" t="s">
         <v>92</v>
       </c>
-      <c r="F32" s="79" t="s">
+      <c r="F32" s="66" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A33" s="162" t="s">
+      <c r="A33" s="130" t="s">
         <v>206</v>
       </c>
-      <c r="B33" s="162">
-        <v>10</v>
-      </c>
-      <c r="C33" s="165" t="s">
+      <c r="B33" s="132">
+        <v>10</v>
+      </c>
+      <c r="C33" s="133" t="s">
         <v>207</v>
       </c>
-      <c r="D33" s="165" t="s">
+      <c r="D33" s="133" t="s">
         <v>208</v>
       </c>
-      <c r="E33" s="163" t="s">
+      <c r="E33" s="131" t="s">
         <v>92</v>
       </c>
-      <c r="F33" s="163" t="s">
+      <c r="F33" s="131" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A34" s="164" t="s">
+      <c r="A34" s="132" t="s">
         <v>209</v>
       </c>
-      <c r="B34" s="164">
-        <v>10</v>
-      </c>
-      <c r="C34" s="165" t="s">
+      <c r="B34" s="132">
+        <v>10</v>
+      </c>
+      <c r="C34" s="133" t="s">
         <v>207</v>
       </c>
-      <c r="D34" s="165" t="s">
+      <c r="D34" s="133" t="s">
         <v>208</v>
       </c>
-      <c r="E34" s="166" t="s">
+      <c r="E34" s="134" t="s">
         <v>210</v>
       </c>
-      <c r="F34" s="166" t="s">
+      <c r="F34" s="134" t="s">
         <v>211</v>
       </c>
     </row>
@@ -2317,59 +2221,59 @@
       <c r="A35" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="B35" s="78">
-        <v>10</v>
-      </c>
-      <c r="C35" s="81" t="s">
+      <c r="B35" s="132">
+        <v>10</v>
+      </c>
+      <c r="C35" s="68" t="s">
         <v>97</v>
       </c>
-      <c r="D35" s="81" t="s">
+      <c r="D35" s="68" t="s">
         <v>98</v>
       </c>
-      <c r="E35" s="79" t="s">
+      <c r="E35" s="66" t="s">
         <v>92</v>
       </c>
-      <c r="F35" s="79" t="s">
+      <c r="F35" s="66" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A36" s="80" t="s">
+      <c r="A36" s="67" t="s">
         <v>99</v>
       </c>
-      <c r="B36" s="80">
-        <v>10</v>
-      </c>
-      <c r="C36" s="81" t="s">
+      <c r="B36" s="132">
+        <v>10</v>
+      </c>
+      <c r="C36" s="68" t="s">
         <v>97</v>
       </c>
-      <c r="D36" s="81" t="s">
+      <c r="D36" s="68" t="s">
         <v>98</v>
       </c>
-      <c r="E36" s="82" t="s">
+      <c r="E36" s="69" t="s">
         <v>100</v>
       </c>
-      <c r="F36" s="82" t="s">
+      <c r="F36" s="69" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A37" s="84" t="s">
+      <c r="A37" s="71" t="s">
         <v>104</v>
       </c>
-      <c r="B37" s="84">
-        <v>10</v>
-      </c>
-      <c r="C37" s="83" t="s">
+      <c r="B37" s="132">
+        <v>10</v>
+      </c>
+      <c r="C37" s="70" t="s">
         <v>100</v>
       </c>
-      <c r="D37" s="83" t="s">
+      <c r="D37" s="70" t="s">
         <v>101</v>
       </c>
-      <c r="E37" s="85" t="s">
+      <c r="E37" s="72" t="s">
         <v>102</v>
       </c>
-      <c r="F37" s="85" t="s">
+      <c r="F37" s="72" t="s">
         <v>103</v>
       </c>
     </row>
@@ -2377,39 +2281,39 @@
       <c r="A38" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="B38" s="84">
-        <v>10</v>
-      </c>
-      <c r="C38" s="85" t="s">
+      <c r="B38" s="132">
+        <v>10</v>
+      </c>
+      <c r="C38" s="72" t="s">
         <v>102</v>
       </c>
-      <c r="D38" s="85" t="s">
+      <c r="D38" s="72" t="s">
         <v>103</v>
       </c>
-      <c r="E38" s="87" t="s">
+      <c r="E38" s="74" t="s">
         <v>106</v>
       </c>
-      <c r="F38" s="87" t="s">
+      <c r="F38" s="74" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A39" s="86" t="s">
+      <c r="A39" s="73" t="s">
         <v>108</v>
       </c>
-      <c r="B39" s="86">
-        <v>10</v>
-      </c>
-      <c r="C39" s="87" t="s">
+      <c r="B39" s="132">
+        <v>10</v>
+      </c>
+      <c r="C39" s="74" t="s">
         <v>102</v>
       </c>
-      <c r="D39" s="87" t="s">
+      <c r="D39" s="74" t="s">
         <v>103</v>
       </c>
-      <c r="E39" s="89" t="s">
+      <c r="E39" s="75" t="s">
         <v>109</v>
       </c>
-      <c r="F39" s="89" t="s">
+      <c r="F39" s="75" t="s">
         <v>110</v>
       </c>
     </row>
@@ -2417,39 +2321,39 @@
       <c r="A40" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="B40" s="88">
-        <v>10</v>
-      </c>
-      <c r="C40" s="91" t="s">
+      <c r="B40" s="132">
+        <v>10</v>
+      </c>
+      <c r="C40" s="77" t="s">
         <v>112</v>
       </c>
-      <c r="D40" s="91" t="s">
+      <c r="D40" s="77" t="s">
         <v>113</v>
       </c>
-      <c r="E40" s="89" t="s">
+      <c r="E40" s="75" t="s">
         <v>109</v>
       </c>
-      <c r="F40" s="89" t="s">
+      <c r="F40" s="75" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A41" s="90" t="s">
+      <c r="A41" s="76" t="s">
         <v>33</v>
       </c>
-      <c r="B41" s="90">
-        <v>10</v>
-      </c>
-      <c r="C41" s="91" t="s">
+      <c r="B41" s="132">
+        <v>10</v>
+      </c>
+      <c r="C41" s="77" t="s">
         <v>112</v>
       </c>
-      <c r="D41" s="91" t="s">
+      <c r="D41" s="77" t="s">
         <v>113</v>
       </c>
-      <c r="E41" s="92" t="s">
+      <c r="E41" s="78" t="s">
         <v>114</v>
       </c>
-      <c r="F41" s="92" t="s">
+      <c r="F41" s="78" t="s">
         <v>115</v>
       </c>
     </row>
@@ -2457,19 +2361,19 @@
       <c r="A42" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="B42" s="93">
-        <v>10</v>
-      </c>
-      <c r="C42" s="95" t="s">
+      <c r="B42" s="132">
+        <v>10</v>
+      </c>
+      <c r="C42" s="80" t="s">
         <v>122</v>
       </c>
-      <c r="D42" s="95" t="s">
+      <c r="D42" s="80" t="s">
         <v>123</v>
       </c>
-      <c r="E42" s="94" t="s">
+      <c r="E42" s="79" t="s">
         <v>114</v>
       </c>
-      <c r="F42" s="94" t="s">
+      <c r="F42" s="79" t="s">
         <v>115</v>
       </c>
     </row>
@@ -2477,19 +2381,19 @@
       <c r="A43" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="B43" s="93">
-        <v>10</v>
-      </c>
-      <c r="C43" s="96" t="s">
+      <c r="B43" s="132">
+        <v>10</v>
+      </c>
+      <c r="C43" s="81" t="s">
         <v>122</v>
       </c>
-      <c r="D43" s="96" t="s">
+      <c r="D43" s="81" t="s">
         <v>123</v>
       </c>
-      <c r="E43" s="97" t="s">
+      <c r="E43" s="82" t="s">
         <v>124</v>
       </c>
-      <c r="F43" s="97" t="s">
+      <c r="F43" s="82" t="s">
         <v>125</v>
       </c>
     </row>
@@ -2497,19 +2401,19 @@
       <c r="A44" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="B44" s="93">
-        <v>10</v>
-      </c>
-      <c r="C44" s="98" t="s">
+      <c r="B44" s="132">
+        <v>10</v>
+      </c>
+      <c r="C44" s="83" t="s">
         <v>124</v>
       </c>
-      <c r="D44" s="98" t="s">
+      <c r="D44" s="83" t="s">
         <v>125</v>
       </c>
-      <c r="E44" s="99" t="s">
+      <c r="E44" s="84" t="s">
         <v>126</v>
       </c>
-      <c r="F44" s="99" t="s">
+      <c r="F44" s="84" t="s">
         <v>127</v>
       </c>
     </row>
@@ -2517,19 +2421,19 @@
       <c r="A45" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="B45" s="93">
-        <v>10</v>
-      </c>
-      <c r="C45" s="101" t="s">
+      <c r="B45" s="132">
+        <v>10</v>
+      </c>
+      <c r="C45" s="85" t="s">
         <v>126</v>
       </c>
-      <c r="D45" s="101" t="s">
+      <c r="D45" s="85" t="s">
         <v>127</v>
       </c>
-      <c r="E45" s="94" t="s">
+      <c r="E45" s="79" t="s">
         <v>120</v>
       </c>
-      <c r="F45" s="94" t="s">
+      <c r="F45" s="79" t="s">
         <v>121</v>
       </c>
     </row>
@@ -2537,19 +2441,19 @@
       <c r="A46" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="B46" s="100">
-        <v>10</v>
-      </c>
-      <c r="C46" s="104" t="s">
+      <c r="B46" s="132">
+        <v>10</v>
+      </c>
+      <c r="C46" s="87" t="s">
         <v>81</v>
       </c>
-      <c r="D46" s="104" t="s">
+      <c r="D46" s="87" t="s">
         <v>82</v>
       </c>
-      <c r="E46" s="102" t="s">
+      <c r="E46" s="86" t="s">
         <v>129</v>
       </c>
-      <c r="F46" s="102" t="s">
+      <c r="F46" s="86" t="s">
         <v>130</v>
       </c>
     </row>
@@ -2557,19 +2461,19 @@
       <c r="A47" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="B47" s="103">
-        <v>10</v>
-      </c>
-      <c r="C47" s="106" t="s">
+      <c r="B47" s="132">
+        <v>10</v>
+      </c>
+      <c r="C47" s="88" t="s">
         <v>132</v>
       </c>
-      <c r="D47" s="106" t="s">
+      <c r="D47" s="88" t="s">
         <v>133</v>
       </c>
-      <c r="E47" s="104" t="s">
+      <c r="E47" s="87" t="s">
         <v>129</v>
       </c>
-      <c r="F47" s="104" t="s">
+      <c r="F47" s="87" t="s">
         <v>130</v>
       </c>
     </row>
@@ -2577,19 +2481,19 @@
       <c r="A48" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="B48" s="105">
-        <v>10</v>
-      </c>
-      <c r="C48" s="106" t="s">
+      <c r="B48" s="132">
+        <v>10</v>
+      </c>
+      <c r="C48" s="88" t="s">
         <v>132</v>
       </c>
-      <c r="D48" s="106" t="s">
+      <c r="D48" s="88" t="s">
         <v>133</v>
       </c>
-      <c r="E48" s="108" t="s">
+      <c r="E48" s="89" t="s">
         <v>135</v>
       </c>
-      <c r="F48" s="108" t="s">
+      <c r="F48" s="89" t="s">
         <v>136</v>
       </c>
     </row>
@@ -2597,39 +2501,39 @@
       <c r="A49" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="B49" s="107">
-        <v>10</v>
-      </c>
-      <c r="C49" s="109" t="s">
+      <c r="B49" s="132">
+        <v>10</v>
+      </c>
+      <c r="C49" s="90" t="s">
         <v>132</v>
       </c>
-      <c r="D49" s="109" t="s">
+      <c r="D49" s="90" t="s">
         <v>133</v>
       </c>
-      <c r="E49" s="110" t="s">
+      <c r="E49" s="91" t="s">
         <v>112</v>
       </c>
-      <c r="F49" s="110" t="s">
+      <c r="F49" s="91" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A50" s="111" t="s">
+      <c r="A50" s="92" t="s">
         <v>140</v>
       </c>
-      <c r="B50" s="111">
-        <v>10</v>
-      </c>
-      <c r="C50" s="112" t="s">
+      <c r="B50" s="132">
+        <v>10</v>
+      </c>
+      <c r="C50" s="93" t="s">
         <v>129</v>
       </c>
-      <c r="D50" s="112" t="s">
+      <c r="D50" s="93" t="s">
         <v>130</v>
       </c>
-      <c r="E50" s="114" t="s">
+      <c r="E50" s="94" t="s">
         <v>138</v>
       </c>
-      <c r="F50" s="114" t="s">
+      <c r="F50" s="94" t="s">
         <v>139</v>
       </c>
     </row>
@@ -2637,19 +2541,19 @@
       <c r="A51" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="B51" s="113">
-        <v>10</v>
-      </c>
-      <c r="C51" s="116" t="s">
+      <c r="B51" s="132">
+        <v>10</v>
+      </c>
+      <c r="C51" s="95" t="s">
         <v>142</v>
       </c>
-      <c r="D51" s="116" t="s">
+      <c r="D51" s="95" t="s">
         <v>143</v>
       </c>
-      <c r="E51" s="114" t="s">
+      <c r="E51" s="94" t="s">
         <v>138</v>
       </c>
-      <c r="F51" s="114" t="s">
+      <c r="F51" s="94" t="s">
         <v>139</v>
       </c>
     </row>
@@ -2657,59 +2561,59 @@
       <c r="A52" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="B52" s="115">
-        <v>10</v>
-      </c>
-      <c r="C52" s="118" t="s">
+      <c r="B52" s="132">
+        <v>10</v>
+      </c>
+      <c r="C52" s="97" t="s">
         <v>145</v>
       </c>
-      <c r="D52" s="118" t="s">
+      <c r="D52" s="97" t="s">
         <v>146</v>
       </c>
-      <c r="E52" s="116" t="s">
+      <c r="E52" s="95" t="s">
         <v>138</v>
       </c>
-      <c r="F52" s="116" t="s">
+      <c r="F52" s="95" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A53" s="117" t="s">
+      <c r="A53" s="96" t="s">
         <v>147</v>
       </c>
-      <c r="B53" s="119">
-        <v>10</v>
-      </c>
-      <c r="C53" s="120" t="s">
+      <c r="B53" s="132">
+        <v>10</v>
+      </c>
+      <c r="C53" s="99" t="s">
         <v>145</v>
       </c>
-      <c r="D53" s="120" t="s">
+      <c r="D53" s="99" t="s">
         <v>146</v>
       </c>
-      <c r="E53" s="120" t="s">
+      <c r="E53" s="99" t="s">
         <v>148</v>
       </c>
-      <c r="F53" s="120" t="s">
+      <c r="F53" s="99" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A54" s="119" t="s">
+      <c r="A54" s="98" t="s">
         <v>150</v>
       </c>
-      <c r="B54" s="119">
-        <v>10</v>
-      </c>
-      <c r="C54" s="120" t="s">
+      <c r="B54" s="132">
+        <v>10</v>
+      </c>
+      <c r="C54" s="99" t="s">
         <v>145</v>
       </c>
-      <c r="D54" s="120" t="s">
+      <c r="D54" s="99" t="s">
         <v>146</v>
       </c>
-      <c r="E54" s="122" t="s">
+      <c r="E54" s="100" t="s">
         <v>151</v>
       </c>
-      <c r="F54" s="122" t="s">
+      <c r="F54" s="100" t="s">
         <v>152</v>
       </c>
     </row>
@@ -2717,19 +2621,19 @@
       <c r="A55" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="B55" s="121">
-        <v>10</v>
-      </c>
-      <c r="C55" s="123" t="s">
+      <c r="B55" s="132">
+        <v>10</v>
+      </c>
+      <c r="C55" s="101" t="s">
         <v>154</v>
       </c>
-      <c r="D55" s="123" t="s">
+      <c r="D55" s="101" t="s">
         <v>155</v>
       </c>
-      <c r="E55" s="122" t="s">
+      <c r="E55" s="100" t="s">
         <v>151</v>
       </c>
-      <c r="F55" s="122" t="s">
+      <c r="F55" s="100" t="s">
         <v>152</v>
       </c>
     </row>
@@ -2737,19 +2641,19 @@
       <c r="A56" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="B56" s="124">
-        <v>10</v>
-      </c>
-      <c r="C56" s="127" t="s">
+      <c r="B56" s="132">
+        <v>10</v>
+      </c>
+      <c r="C56" s="103" t="s">
         <v>51</v>
       </c>
-      <c r="D56" s="127" t="s">
+      <c r="D56" s="103" t="s">
         <v>52</v>
       </c>
-      <c r="E56" s="125" t="s">
+      <c r="E56" s="102" t="s">
         <v>157</v>
       </c>
-      <c r="F56" s="125" t="s">
+      <c r="F56" s="102" t="s">
         <v>158</v>
       </c>
     </row>
@@ -2757,39 +2661,39 @@
       <c r="A57" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="B57" s="126">
-        <v>10</v>
-      </c>
-      <c r="C57" s="129" t="s">
+      <c r="B57" s="132">
+        <v>10</v>
+      </c>
+      <c r="C57" s="105" t="s">
         <v>160</v>
       </c>
-      <c r="D57" s="129" t="s">
+      <c r="D57" s="105" t="s">
         <v>161</v>
       </c>
-      <c r="E57" s="127" t="s">
+      <c r="E57" s="103" t="s">
         <v>157</v>
       </c>
-      <c r="F57" s="127" t="s">
+      <c r="F57" s="103" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A58" s="128" t="s">
+      <c r="A58" s="104" t="s">
         <v>162</v>
       </c>
-      <c r="B58" s="128">
-        <v>10</v>
-      </c>
-      <c r="C58" s="129" t="s">
+      <c r="B58" s="132">
+        <v>10</v>
+      </c>
+      <c r="C58" s="105" t="s">
         <v>160</v>
       </c>
-      <c r="D58" s="129" t="s">
+      <c r="D58" s="105" t="s">
         <v>161</v>
       </c>
-      <c r="E58" s="130" t="s">
+      <c r="E58" s="106" t="s">
         <v>164</v>
       </c>
-      <c r="F58" s="130" t="s">
+      <c r="F58" s="106" t="s">
         <v>165</v>
       </c>
     </row>
@@ -2797,19 +2701,19 @@
       <c r="A59" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="B59" s="131">
-        <v>10</v>
-      </c>
-      <c r="C59" s="135" t="s">
+      <c r="B59" s="132">
+        <v>10</v>
+      </c>
+      <c r="C59" s="109" t="s">
         <v>166</v>
       </c>
-      <c r="D59" s="135" t="s">
+      <c r="D59" s="109" t="s">
         <v>167</v>
       </c>
-      <c r="E59" s="132" t="s">
+      <c r="E59" s="107" t="s">
         <v>164</v>
       </c>
-      <c r="F59" s="132" t="s">
+      <c r="F59" s="107" t="s">
         <v>165</v>
       </c>
     </row>
@@ -2817,39 +2721,39 @@
       <c r="A60" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="B60" s="133">
-        <v>10</v>
-      </c>
-      <c r="C60" s="137" t="s">
+      <c r="B60" s="132">
+        <v>10</v>
+      </c>
+      <c r="C60" s="111" t="s">
         <v>169</v>
       </c>
-      <c r="D60" s="137" t="s">
+      <c r="D60" s="111" t="s">
         <v>170</v>
       </c>
-      <c r="E60" s="134" t="s">
+      <c r="E60" s="108" t="s">
         <v>164</v>
       </c>
-      <c r="F60" s="134" t="s">
+      <c r="F60" s="108" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A61" s="136" t="s">
+      <c r="A61" s="110" t="s">
         <v>171</v>
       </c>
-      <c r="B61" s="136">
-        <v>10</v>
-      </c>
-      <c r="C61" s="137" t="s">
+      <c r="B61" s="132">
+        <v>10</v>
+      </c>
+      <c r="C61" s="111" t="s">
         <v>169</v>
       </c>
-      <c r="D61" s="137" t="s">
+      <c r="D61" s="111" t="s">
         <v>170</v>
       </c>
-      <c r="E61" s="139" t="s">
+      <c r="E61" s="112" t="s">
         <v>72</v>
       </c>
-      <c r="F61" s="139" t="s">
+      <c r="F61" s="112" t="s">
         <v>172</v>
       </c>
     </row>
@@ -2857,39 +2761,39 @@
       <c r="A62" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="B62" s="138">
-        <v>10</v>
-      </c>
-      <c r="C62" s="142" t="s">
+      <c r="B62" s="132">
+        <v>10</v>
+      </c>
+      <c r="C62" s="115" t="s">
         <v>174</v>
       </c>
-      <c r="D62" s="142" t="s">
+      <c r="D62" s="115" t="s">
         <v>175</v>
       </c>
-      <c r="E62" s="139" t="s">
+      <c r="E62" s="112" t="s">
         <v>72</v>
       </c>
-      <c r="F62" s="139" t="s">
+      <c r="F62" s="112" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A63" s="140" t="s">
+      <c r="A63" s="113" t="s">
         <v>176</v>
       </c>
-      <c r="B63" s="140">
-        <v>10</v>
-      </c>
-      <c r="C63" s="141" t="s">
+      <c r="B63" s="132">
+        <v>10</v>
+      </c>
+      <c r="C63" s="114" t="s">
         <v>169</v>
       </c>
-      <c r="D63" s="141" t="s">
+      <c r="D63" s="114" t="s">
         <v>170</v>
       </c>
-      <c r="E63" s="143" t="s">
+      <c r="E63" s="116" t="s">
         <v>177</v>
       </c>
-      <c r="F63" s="143" t="s">
+      <c r="F63" s="116" t="s">
         <v>178</v>
       </c>
     </row>
@@ -2897,19 +2801,19 @@
       <c r="A64" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="B64" s="144">
-        <v>10</v>
-      </c>
-      <c r="C64" s="145" t="s">
+      <c r="B64" s="132">
+        <v>10</v>
+      </c>
+      <c r="C64" s="117" t="s">
         <v>177</v>
       </c>
-      <c r="D64" s="145" t="s">
+      <c r="D64" s="117" t="s">
         <v>178</v>
       </c>
-      <c r="E64" s="146" t="s">
+      <c r="E64" s="118" t="s">
         <v>184</v>
       </c>
-      <c r="F64" s="146" t="s">
+      <c r="F64" s="118" t="s">
         <v>185</v>
       </c>
     </row>
@@ -2917,19 +2821,19 @@
       <c r="A65" s="3" t="s">
         <v>180</v>
       </c>
-      <c r="B65" s="144">
-        <v>10</v>
-      </c>
-      <c r="C65" s="147" t="s">
+      <c r="B65" s="132">
+        <v>10</v>
+      </c>
+      <c r="C65" s="119" t="s">
         <v>184</v>
       </c>
-      <c r="D65" s="147" t="s">
+      <c r="D65" s="119" t="s">
         <v>185</v>
       </c>
-      <c r="E65" s="148" t="s">
+      <c r="E65" s="120" t="s">
         <v>186</v>
       </c>
-      <c r="F65" s="148" t="s">
+      <c r="F65" s="120" t="s">
         <v>187</v>
       </c>
     </row>
@@ -2937,39 +2841,39 @@
       <c r="A66" s="3" t="s">
         <v>181</v>
       </c>
-      <c r="B66" s="144">
-        <v>10</v>
-      </c>
-      <c r="C66" s="150" t="s">
+      <c r="B66" s="132">
+        <v>10</v>
+      </c>
+      <c r="C66" s="122" t="s">
         <v>186</v>
       </c>
-      <c r="D66" s="150" t="s">
+      <c r="D66" s="122" t="s">
         <v>187</v>
       </c>
-      <c r="E66" s="145" t="s">
+      <c r="E66" s="117" t="s">
         <v>182</v>
       </c>
-      <c r="F66" s="145" t="s">
+      <c r="F66" s="117" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A67" s="149" t="s">
+      <c r="A67" s="121" t="s">
         <v>188</v>
       </c>
-      <c r="B67" s="149">
-        <v>10</v>
-      </c>
-      <c r="C67" s="150" t="s">
+      <c r="B67" s="132">
+        <v>10</v>
+      </c>
+      <c r="C67" s="122" t="s">
         <v>177</v>
       </c>
-      <c r="D67" s="150" t="s">
+      <c r="D67" s="122" t="s">
         <v>178</v>
       </c>
-      <c r="E67" s="152" t="s">
+      <c r="E67" s="123" t="s">
         <v>189</v>
       </c>
-      <c r="F67" s="152" t="s">
+      <c r="F67" s="123" t="s">
         <v>190</v>
       </c>
     </row>
@@ -2977,19 +2881,19 @@
       <c r="A68" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="B68" s="151">
-        <v>10</v>
-      </c>
-      <c r="C68" s="154" t="s">
+      <c r="B68" s="132">
+        <v>10</v>
+      </c>
+      <c r="C68" s="124" t="s">
         <v>192</v>
       </c>
-      <c r="D68" s="154" t="s">
+      <c r="D68" s="124" t="s">
         <v>193</v>
       </c>
-      <c r="E68" s="152" t="s">
+      <c r="E68" s="123" t="s">
         <v>189</v>
       </c>
-      <c r="F68" s="152" t="s">
+      <c r="F68" s="123" t="s">
         <v>190</v>
       </c>
     </row>
@@ -2997,19 +2901,19 @@
       <c r="A69" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="B69" s="153">
-        <v>10</v>
-      </c>
-      <c r="C69" s="154" t="s">
+      <c r="B69" s="132">
+        <v>10</v>
+      </c>
+      <c r="C69" s="124" t="s">
         <v>192</v>
       </c>
-      <c r="D69" s="154" t="s">
+      <c r="D69" s="124" t="s">
         <v>193</v>
       </c>
-      <c r="E69" s="156" t="s">
+      <c r="E69" s="125" t="s">
         <v>195</v>
       </c>
-      <c r="F69" s="156" t="s">
+      <c r="F69" s="125" t="s">
         <v>196</v>
       </c>
     </row>
@@ -3017,19 +2921,19 @@
       <c r="A70" s="3" t="s">
         <v>197</v>
       </c>
-      <c r="B70" s="155">
-        <v>10</v>
-      </c>
-      <c r="C70" s="156" t="s">
+      <c r="B70" s="132">
+        <v>10</v>
+      </c>
+      <c r="C70" s="125" t="s">
         <v>192</v>
       </c>
-      <c r="D70" s="156" t="s">
+      <c r="D70" s="125" t="s">
         <v>193</v>
       </c>
-      <c r="E70" s="158" t="s">
+      <c r="E70" s="126" t="s">
         <v>198</v>
       </c>
-      <c r="F70" s="158" t="s">
+      <c r="F70" s="126" t="s">
         <v>199</v>
       </c>
     </row>
@@ -3037,19 +2941,19 @@
       <c r="A71" s="3" t="s">
         <v>200</v>
       </c>
-      <c r="B71" s="157">
-        <v>10</v>
-      </c>
-      <c r="C71" s="160" t="s">
+      <c r="B71" s="132">
+        <v>10</v>
+      </c>
+      <c r="C71" s="128" t="s">
         <v>202</v>
       </c>
-      <c r="D71" s="160" t="s">
+      <c r="D71" s="128" t="s">
         <v>203</v>
       </c>
-      <c r="E71" s="159" t="s">
+      <c r="E71" s="127" t="s">
         <v>198</v>
       </c>
-      <c r="F71" s="159" t="s">
+      <c r="F71" s="127" t="s">
         <v>199</v>
       </c>
     </row>
@@ -3057,19 +2961,19 @@
       <c r="A72" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="B72" s="157">
-        <v>10</v>
-      </c>
-      <c r="C72" s="161" t="s">
+      <c r="B72" s="132">
+        <v>10</v>
+      </c>
+      <c r="C72" s="129" t="s">
         <v>202</v>
       </c>
-      <c r="D72" s="161" t="s">
+      <c r="D72" s="129" t="s">
         <v>203</v>
       </c>
-      <c r="E72" s="163" t="s">
+      <c r="E72" s="131" t="s">
         <v>204</v>
       </c>
-      <c r="F72" s="163" t="s">
+      <c r="F72" s="131" t="s">
         <v>205</v>
       </c>
     </row>
